--- a/app/data/absenteeism_data_47.xlsx
+++ b/app/data/absenteeism_data_47.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>59013</v>
+        <v>2765</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cecília Farias</t>
+          <t>Joaquim da Conceição</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,56 +494,56 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45095</v>
+        <v>45085</v>
       </c>
       <c r="G2" t="n">
-        <v>5914.32</v>
+        <v>8632.370000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>21138</v>
+        <v>40654</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dr. Raul Novaes</t>
+          <t>Dra. Nina da Mata</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45079</v>
+        <v>45101</v>
       </c>
       <c r="G3" t="n">
-        <v>4490.35</v>
+        <v>3942.77</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>356</v>
+        <v>9455</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Leonardo Araújo</t>
+          <t>Camila Correia</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,143 +552,143 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45101</v>
+        <v>45096</v>
       </c>
       <c r="G4" t="n">
-        <v>7650.72</v>
+        <v>10267.75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>16052</v>
+        <v>96023</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Srta. Gabriela Farias</t>
+          <t>Yago Monteiro</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45093</v>
+        <v>45101</v>
       </c>
       <c r="G5" t="n">
-        <v>3329.22</v>
+        <v>6568.45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>78875</v>
+        <v>62544</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sr. Pedro Miguel Melo</t>
+          <t>Maria Vitória da Rocha</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45105</v>
+        <v>45089</v>
       </c>
       <c r="G6" t="n">
-        <v>10303.69</v>
+        <v>6758.57</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>29395</v>
+        <v>52293</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>João Vitor Martins</t>
+          <t>Sr. Fernando Moreira</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45106</v>
+        <v>45084</v>
       </c>
       <c r="G7" t="n">
-        <v>11669.04</v>
+        <v>6907.86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>95799</v>
+        <v>91110</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Srta. Brenda Santos</t>
+          <t>Srta. Bruna da Costa</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45096</v>
+        <v>45087</v>
       </c>
       <c r="G8" t="n">
-        <v>12037.56</v>
+        <v>2884.04</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>62354</v>
+        <v>25867</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Augusto Melo</t>
+          <t>Kaique Pinto</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -697,71 +697,71 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45098</v>
+        <v>45094</v>
       </c>
       <c r="G9" t="n">
-        <v>6138.76</v>
+        <v>3420.86</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>59181</v>
+        <v>72185</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Heitor Nunes</t>
+          <t>Francisco Gomes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45089</v>
+        <v>45096</v>
       </c>
       <c r="G10" t="n">
-        <v>10431.15</v>
+        <v>6312</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>33452</v>
+        <v>76451</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Joaquim Silveira</t>
+          <t>Davi Luiz Moreira</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>45079</v>
       </c>
       <c r="G11" t="n">
-        <v>11312.92</v>
+        <v>5545.42</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/absenteeism_data_47.xlsx
+++ b/app/data/absenteeism_data_47.xlsx
@@ -476,11 +476,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>69746</v>
+        <v>15992</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Davi Luiz Correia</t>
+          <t>João Gabriel Alves</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -494,85 +494,85 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45083</v>
+        <v>45080</v>
       </c>
       <c r="G2" t="n">
-        <v>6867.2</v>
+        <v>10041.95</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>13696</v>
+        <v>30347</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lívia Ribeiro</t>
+          <t>Maria Clara Moreira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45105</v>
+        <v>45104</v>
       </c>
       <c r="G3" t="n">
-        <v>10215.18</v>
+        <v>11620.28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>13143</v>
+        <v>34965</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>André da Conceição</t>
+          <t>Mirella Dias</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45097</v>
+        <v>45092</v>
       </c>
       <c r="G4" t="n">
-        <v>9754.99</v>
+        <v>7821.53</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>54793</v>
+        <v>29162</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Isabelly da Mota</t>
+          <t>Lucas Gabriel da Mata</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -584,140 +584,140 @@
         <v>5</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45102</v>
+        <v>45105</v>
       </c>
       <c r="G5" t="n">
-        <v>10068.75</v>
+        <v>8946.66</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>97037</v>
+        <v>14832</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Kamilly Cunha</t>
+          <t>Gabriela das Neves</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45093</v>
+        <v>45084</v>
       </c>
       <c r="G6" t="n">
-        <v>6770.91</v>
+        <v>5600.15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>33908</v>
+        <v>13710</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Catarina Araújo</t>
+          <t>Murilo Duarte</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>2</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45092</v>
+        <v>45101</v>
       </c>
       <c r="G7" t="n">
-        <v>10926.11</v>
+        <v>5840.74</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>87702</v>
+        <v>63956</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Maria Cecília Nunes</t>
+          <t>Srta. Olivia Melo</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45096</v>
+        <v>45104</v>
       </c>
       <c r="G8" t="n">
-        <v>4611.75</v>
+        <v>11006.87</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>11701</v>
+        <v>64300</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Davi Cardoso</t>
+          <t>Kevin Costela</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45102</v>
+        <v>45097</v>
       </c>
       <c r="G9" t="n">
-        <v>6555.45</v>
+        <v>6942.09</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>83742</v>
+        <v>87216</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ian Gomes</t>
+          <t>Dra. Kamilly Barbosa</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,22 +726,22 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45093</v>
+        <v>45091</v>
       </c>
       <c r="G10" t="n">
-        <v>4432.48</v>
+        <v>5462.93</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>30680</v>
+        <v>55149</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Dra. Ana Clara Duarte</t>
+          <t>Pietra Cavalcanti</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -751,17 +751,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>2</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45103</v>
+        <v>45095</v>
       </c>
       <c r="G11" t="n">
-        <v>11550.7</v>
+        <v>12430.4</v>
       </c>
     </row>
   </sheetData>
